--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6966009557516</v>
+        <v>42.517849</v>
       </c>
       <c r="H2">
-        <v>10.6966009557516</v>
+        <v>127.553547</v>
       </c>
       <c r="I2">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J2">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N2">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q2">
-        <v>37.30177567376918</v>
+        <v>2178.360042570654</v>
       </c>
       <c r="R2">
-        <v>37.30177567376918</v>
+        <v>19605.24038313588</v>
       </c>
       <c r="S2">
-        <v>0.005997192074151014</v>
+        <v>0.02239500747655461</v>
       </c>
       <c r="T2">
-        <v>0.005997192074151014</v>
+        <v>0.0223950074765546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1639.33485019011</v>
+        <v>42.517849</v>
       </c>
       <c r="H3">
-        <v>1639.33485019011</v>
+        <v>127.553547</v>
       </c>
       <c r="I3">
-        <v>0.9191149610150957</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J3">
-        <v>0.9191149610150957</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.48725504747486</v>
+        <v>1.648742666666666</v>
       </c>
       <c r="N3">
-        <v>3.48725504747486</v>
+        <v>4.946228</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03117732114163389</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03117732114163389</v>
       </c>
       <c r="Q3">
-        <v>5716.778730826904</v>
+        <v>70.10099174119065</v>
       </c>
       <c r="R3">
-        <v>5716.778730826904</v>
+        <v>630.9089256707159</v>
       </c>
       <c r="S3">
-        <v>0.9191149610150957</v>
+        <v>0.0007206853795873087</v>
       </c>
       <c r="T3">
-        <v>0.9191149610150957</v>
+        <v>0.0007206853795873087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.570078285869</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H4">
-        <v>133.570078285869</v>
+        <v>4934.216186</v>
       </c>
       <c r="I4">
-        <v>0.07488784691075336</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J4">
-        <v>0.07488784691075336</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N4">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q4">
-        <v>465.7929296940088</v>
+        <v>84266.56595435771</v>
       </c>
       <c r="R4">
-        <v>465.7929296940088</v>
+        <v>758399.0935892195</v>
       </c>
       <c r="S4">
-        <v>0.07488784691075336</v>
+        <v>0.8663170172477191</v>
       </c>
       <c r="T4">
-        <v>0.07488784691075336</v>
+        <v>0.866317017247719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1644.738728666666</v>
+      </c>
+      <c r="H5">
+        <v>4934.216186</v>
+      </c>
+      <c r="I5">
+        <v>0.8941956419399297</v>
+      </c>
+      <c r="J5">
+        <v>0.8941956419399296</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N5">
+        <v>4.946228</v>
+      </c>
+      <c r="O5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q5">
+        <v>2711.750917471823</v>
+      </c>
+      <c r="R5">
+        <v>24405.75825724641</v>
+      </c>
+      <c r="S5">
+        <v>0.02787862469221066</v>
+      </c>
+      <c r="T5">
+        <v>0.02787862469221066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>152.093394</v>
+      </c>
+      <c r="H6">
+        <v>456.280182</v>
+      </c>
+      <c r="I6">
+        <v>0.08268866520392831</v>
+      </c>
+      <c r="J6">
+        <v>0.0826886652039283</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>51.23401333333334</v>
+      </c>
+      <c r="N6">
+        <v>153.70204</v>
+      </c>
+      <c r="O6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="P6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="Q6">
+        <v>7792.354976107921</v>
+      </c>
+      <c r="R6">
+        <v>70131.19478497129</v>
+      </c>
+      <c r="S6">
+        <v>0.08011065413409239</v>
+      </c>
+      <c r="T6">
+        <v>0.08011065413409238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>152.093394</v>
+      </c>
+      <c r="H7">
+        <v>456.280182</v>
+      </c>
+      <c r="I7">
+        <v>0.08268866520392831</v>
+      </c>
+      <c r="J7">
+        <v>0.0826886652039283</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N7">
+        <v>4.946228</v>
+      </c>
+      <c r="O7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q7">
+        <v>250.762868005944</v>
+      </c>
+      <c r="R7">
+        <v>2256.865812053496</v>
+      </c>
+      <c r="S7">
+        <v>0.002578011069835921</v>
+      </c>
+      <c r="T7">
+        <v>0.002578011069835921</v>
       </c>
     </row>
   </sheetData>
